--- a/bots/crawl_ch/output/toilet_coop_2022-08-19.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,50 +531,50 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6346813</t>
+          <t>6497243</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
+          <t>Super Soft WC-Papier Sensation 3-lagig 16 Rollen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-3-lagig-16-rollen/p/6497243</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9Rol</t>
+          <t>16Rol</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.98/1Rol</t>
+          <t>0.81/1Rol</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -599,12 +599,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
+          <t>Super Soft WC-Papier Sensation 3-lagig 16 Rollen 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -953,7 +953,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -1282,151 +1282,151 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3180824</t>
+          <t>6995916</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
+          <t>Tela Viva Haushaltspapier FSC 16 Rollen</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-fsc-16-rollen/p/6995916</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>7</v>
-      </c>
+          <t>16Rol</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>11.90</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>0.74/1Rol</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier FSC 16 Rollen 50% Aktion 11.90 Schweizer Franken statt 23.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6995916</t>
+          <t>3180824</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier FSC 16 Rollen</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-fsc-16-rollen/p/6995916</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16Rol</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.74/1Rol</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier FSC 16 Rollen 50% Aktion 11.90 Schweizer Franken statt 23.80 Schweizer Franken</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
@@ -2195,50 +2195,50 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6800946</t>
+          <t>3650495</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück</t>
+          <t>Oecoplan Taschentücher Classic 42x10Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-taschentuecher-classic-42x10stueck/p/3650495</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>144ST</t>
+          <t>42ST</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hipp</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2258,60 +2258,60 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück 9.95 Schweizer Franken</t>
+          <t>Oecoplan Taschentücher Classic 42x10Stück 22% Aktion 4.95 Schweizer Franken statt 6.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6868354</t>
+          <t>6800946</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco</t>
+          <t>Hipp Natural zart duftend 3x48 Stück</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>144ST</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Hipp</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2331,94 +2331,112 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
+          <t>Hipp Natural zart duftend 3x48 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6996030</t>
+          <t>6868354</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
+          <t>Tempo Bamboo Eco</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>200BLT</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.33/1ST</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6996029</t>
+          <t>6996030</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6Rol</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2432,259 +2450,314 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.93/1Rol</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6636712</t>
+          <t>6996029</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher</t>
+          <t>Tela Lux 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>42ST</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>2</v>
-      </c>
+          <t>6Rol</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.93/1Rol</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
+          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6996129</t>
+          <t>6636712</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-toilettenpapier-futura-3-lagig-9-rollen/p/6996129</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>9Rol</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>42ST</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.93/1Rol</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:16</t>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>6996129</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-toilettenpapier-futura-3-lagig-9-rollen/p/6996129</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9Rol</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Tela</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.93/1Rol</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2022-08-19 20:58:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>6727164</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Wetties Allzwecktücher 80Stück</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>80ST</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F34" t="n">
         <v>5</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Coop</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>3.95</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>0.05/1ST</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Preis pro 1 Stück</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>2022-08-19 07:02:16</t>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2022-08-19 20:58:12</t>
         </is>
       </c>
     </row>
